--- a/Lab 4/Calculations.xlsx
+++ b/Lab 4/Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speci\Desktop\ОПД\opd_lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vadim/Documents/GitHub/Kholoshnia/computer-professional-basics/Lab 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC60F08D-00B1-4796-A4C3-0653DCB7EC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3737A-70D7-3D4C-A7A4-7221CF8950C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="1320" windowWidth="22180" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
   <si>
     <t>Адрес ячейки</t>
   </si>
@@ -107,42 +105,15 @@
     <t>Очистка аккумулятора</t>
   </si>
   <si>
-    <t>EE18</t>
-  </si>
-  <si>
-    <t>AE14</t>
-  </si>
-  <si>
     <t>0C00</t>
   </si>
   <si>
-    <t>D6DB</t>
-  </si>
-  <si>
     <t>0800</t>
   </si>
   <si>
     <t>0740</t>
   </si>
   <si>
-    <t>4E12</t>
-  </si>
-  <si>
-    <t>EE11</t>
-  </si>
-  <si>
-    <t>AE0E</t>
-  </si>
-  <si>
-    <t>6E0C</t>
-  </si>
-  <si>
-    <t>EE0B</t>
-  </si>
-  <si>
-    <t>AE09</t>
-  </si>
-  <si>
     <t>0700</t>
   </si>
   <si>
@@ -161,30 +132,9 @@
     <t>XXXX</t>
   </si>
   <si>
-    <t>0028</t>
-  </si>
-  <si>
     <t>AC01</t>
   </si>
   <si>
-    <t>F204</t>
-  </si>
-  <si>
-    <t>F003</t>
-  </si>
-  <si>
-    <t>7E0A</t>
-  </si>
-  <si>
-    <t>F006</t>
-  </si>
-  <si>
-    <t>F805</t>
-  </si>
-  <si>
-    <t>6С01</t>
-  </si>
-  <si>
     <t>CE01</t>
   </si>
   <si>
@@ -197,199 +147,229 @@
     <t>0A00</t>
   </si>
   <si>
-    <t>0D2F</t>
-  </si>
-  <si>
-    <t>0026</t>
-  </si>
-  <si>
-    <t>ST IP + 11</t>
-  </si>
-  <si>
-    <t>LD IP + 20</t>
-  </si>
-  <si>
-    <t>ST IP + 24</t>
-  </si>
-  <si>
     <t>PUSH</t>
   </si>
   <si>
     <t>Запись AC в стек</t>
   </si>
   <si>
-    <t>CALL $6DB</t>
-  </si>
-  <si>
-    <t>Вызов подпрограммы по адресу 0x6DB</t>
-  </si>
-  <si>
     <t>LD &amp;1</t>
   </si>
   <si>
     <t>Чтение из стека входного параметра</t>
   </si>
   <si>
-    <t>BMI IP + 4</t>
-  </si>
-  <si>
-    <t>Если значение параметра меньше нуля, то переход в ячейку 0x6E1</t>
-  </si>
-  <si>
-    <t>BEQ IP + 3</t>
-  </si>
-  <si>
-    <t>Если значение параметра равно нулю, то переход в ячейку 0x6E1</t>
-  </si>
-  <si>
-    <t>CMP IP + 10</t>
-  </si>
-  <si>
-    <t>Сравнение AC с содержимым ячейки 0x6E9</t>
-  </si>
-  <si>
-    <t>BEQ IP + 6</t>
-  </si>
-  <si>
-    <t>BLT IP + 5</t>
-  </si>
-  <si>
-    <t>Если значение параметра меньше содержимого ячейки 0x6E9, то переход в ячейку 0x6E6</t>
-  </si>
-  <si>
-    <t>Если значение параметра равно содержимогу ячейки 0x6E9, то переход в ячейку 0x6E6</t>
-  </si>
-  <si>
     <t>ASL</t>
   </si>
   <si>
     <t>Арифметический сдвиг влево</t>
   </si>
   <si>
-    <t>SUB &amp;1</t>
-  </si>
-  <si>
     <t>ADD IP + 5</t>
   </si>
   <si>
-    <t>Вычитание из AC входного параметра</t>
-  </si>
-  <si>
-    <t>Сложение с AC сожержимого ячейки 0x6EA</t>
+    <t>ST &amp;1</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>Сохранение AC на место входного параметра в стеке</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Чтение из стека в AC</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>Декремент AC</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>Инкремент AC</t>
+  </si>
+  <si>
+    <t>ST IP + 4</t>
+  </si>
+  <si>
+    <t>Остановка ТГ</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Локальная переменная</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Возврат из подпрограммы</t>
+  </si>
+  <si>
+    <t>ST IP + 25</t>
+  </si>
+  <si>
+    <t>LD IP + 22</t>
+  </si>
+  <si>
+    <t>EE19</t>
+  </si>
+  <si>
+    <t>AE16</t>
+  </si>
+  <si>
+    <t>Загрузка в AC содержимого из ячейки 0x3B4</t>
+  </si>
+  <si>
+    <t>D6FF</t>
+  </si>
+  <si>
+    <t>CALL $6FF</t>
+  </si>
+  <si>
+    <t>Вызов подпрограммы по адресу 0x6FF</t>
+  </si>
+  <si>
+    <t>6E14</t>
+  </si>
+  <si>
+    <t>EE13</t>
+  </si>
+  <si>
+    <t>AE0F</t>
+  </si>
+  <si>
+    <t>4E0D</t>
+  </si>
+  <si>
+    <t>EE0C</t>
+  </si>
+  <si>
+    <t>AE0A</t>
+  </si>
+  <si>
+    <t>0D08</t>
+  </si>
+  <si>
+    <t>F207</t>
+  </si>
+  <si>
+    <t>7E09</t>
+  </si>
+  <si>
+    <t>F905</t>
+  </si>
+  <si>
+    <t>4C01</t>
+  </si>
+  <si>
+    <t>0B10</t>
+  </si>
+  <si>
+    <t>00FA</t>
+  </si>
+  <si>
+    <t>Сохраненине 0 в ячейку 0x3B7</t>
+  </si>
+  <si>
+    <t>Загрузка в AC содержимого из ячейки 0x3B5</t>
+  </si>
+  <si>
+    <t>SUB IP + 20</t>
+  </si>
+  <si>
+    <t>Вычитание из AC содержимого ячейки 0x3B7</t>
+  </si>
+  <si>
+    <t>ST IP + 19</t>
+  </si>
+  <si>
+    <t>Сохраненине AC в ячейку 0x3B7</t>
+  </si>
+  <si>
+    <t>ST IP + 15</t>
+  </si>
+  <si>
+    <t>SUB IP + 13</t>
+  </si>
+  <si>
+    <t>ST IP + 12</t>
+  </si>
+  <si>
+    <t>LD IP + 10</t>
+  </si>
+  <si>
+    <t>Загрузка в AC содержимого ячейки 0x3B6</t>
+  </si>
+  <si>
+    <t>SUB IP + 5</t>
+  </si>
+  <si>
+    <t>Сохранение AC в ячейку 0x3B7</t>
+  </si>
+  <si>
+    <t>BMI IP + 7</t>
+  </si>
+  <si>
+    <t>BGE IP + 5</t>
+  </si>
+  <si>
+    <t>ADD &amp;1</t>
+  </si>
+  <si>
+    <t>Сложение входного параметра с AC</t>
+  </si>
+  <si>
+    <t>Если значение параметра меньше нуля, то переход в ячейку 0x708</t>
+  </si>
+  <si>
+    <t>Если значение параметра больше или равно, то переход в ячейку 0x708</t>
+  </si>
+  <si>
+    <t>Сложение сожержимого ячейки 0x70C с AC</t>
+  </si>
+  <si>
+    <t>LD IP + 2</t>
   </si>
   <si>
     <t>BR IP + 1</t>
   </si>
   <si>
-    <t>Безусловный переход в ячейку 0x6E7</t>
-  </si>
-  <si>
-    <t>ST &amp;1</t>
-  </si>
-  <si>
-    <t>RET</t>
-  </si>
-  <si>
-    <t>Сохранение AC на место входного параметра в стеке</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
-    <t>Чтение из стека в AC</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>Декремент AC</t>
-  </si>
-  <si>
-    <t>ADD IP + 18</t>
-  </si>
-  <si>
-    <t>Сложение AC с содержимым ячейки 0x3D2</t>
-  </si>
-  <si>
-    <t>ST IP + 17</t>
-  </si>
-  <si>
-    <t>Сохраненине AC в ячейку 0x3D2</t>
-  </si>
-  <si>
-    <t>Сохраненине 0 в ячейку 0x3D2</t>
-  </si>
-  <si>
-    <t>Загрузка в AC содержимого из ячейки 0x3CF</t>
-  </si>
-  <si>
-    <t>LD IP + 14</t>
-  </si>
-  <si>
-    <t>Загрузка в AC содержимого из ячейки 0x3D0</t>
-  </si>
-  <si>
-    <t>SUB IP + 12</t>
-  </si>
-  <si>
-    <t>Вычитание из AC содержимого ячейки 0x3D2</t>
-  </si>
-  <si>
-    <t>Сохранение AC в ячейку 0x3D2</t>
-  </si>
-  <si>
-    <t>LD IP + 9</t>
-  </si>
-  <si>
-    <t>Загрузка в AC содержимого ячейки 0x3D1</t>
-  </si>
-  <si>
-    <t>INC</t>
-  </si>
-  <si>
-    <t>Инкремент AC</t>
-  </si>
-  <si>
-    <t>ST IP + 4</t>
-  </si>
-  <si>
-    <t>Остановка ТГ</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Локальная переменная</t>
-  </si>
-  <si>
-    <t>Переменная</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Результат</t>
-  </si>
-  <si>
-    <t>Возврат из подпрограммы</t>
-  </si>
-  <si>
-    <t>Загрузка в AC содержимого ячейки 0x6E9</t>
-  </si>
-  <si>
-    <t>LD IP + 2</t>
+    <t>Безусловный переход в ячейку 0x709</t>
+  </si>
+  <si>
+    <t>Загрузка в AC содержимого ячейки 0x70B</t>
+  </si>
+  <si>
+    <t>CMP IP + 9</t>
+  </si>
+  <si>
+    <t>Сравнение AC с содержимым ячейки 0x70B</t>
   </si>
 </sst>
 </file>
@@ -439,7 +419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -568,11 +548,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -612,12 +629,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -633,9 +644,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,7 +653,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,35 +661,104 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,80 +1042,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="143" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10"/>
-    <col min="2" max="2" width="12.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="10"/>
+    <col min="2" max="2" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" style="10" customWidth="1"/>
-    <col min="9" max="16" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="6.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="10" customWidth="1"/>
+    <col min="9" max="16" width="8.83203125" style="10"/>
     <col min="17" max="17" width="8" style="10" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="10.83203125" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="39"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R2" s="52"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <v>952</v>
-      </c>
-      <c r="B3" s="19" t="str">
+        <v>924</v>
+      </c>
+      <c r="B3" s="18" t="str">
         <f>DEC2HEX($A$3)</f>
-        <v>3B8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>39C</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="44" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1063,36 +1139,36 @@
       <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <f>A3+1</f>
-        <v>953</v>
-      </c>
-      <c r="B4" s="20" t="str">
-        <f t="shared" ref="B4:B29" si="0">DEC2HEX(A4)</f>
-        <v>3B9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="25"/>
+        <v>925</v>
+      </c>
+      <c r="B4" s="18" t="str">
+        <f t="shared" ref="B4:B30" si="0">DEC2HEX(A4)</f>
+        <v>39D</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1102,27 +1178,27 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="24"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <f t="shared" ref="A5:A29" si="1">A4+1</f>
-        <v>954</v>
-      </c>
-      <c r="B5" s="20" t="str">
+        <f t="shared" ref="A5:A30" si="1">A4+1</f>
+        <v>926</v>
+      </c>
+      <c r="B5" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3BA</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="20"/>
+        <v>39E</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="18"/>
       <c r="H5" s="9"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1135,30 +1211,30 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <f t="shared" si="1"/>
-        <v>955</v>
-      </c>
-      <c r="B6" s="20" t="str">
+        <v>927</v>
+      </c>
+      <c r="B6" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3BB</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="20"/>
+        <v>39F</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1166,25 +1242,25 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <f t="shared" si="1"/>
-        <v>956</v>
-      </c>
-      <c r="B7" s="20" t="str">
+        <v>928</v>
+      </c>
+      <c r="B7" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3BC</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="20"/>
+        <v>3A0</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1197,25 +1273,25 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <f t="shared" si="1"/>
-        <v>957</v>
-      </c>
-      <c r="B8" s="20" t="str">
+        <v>929</v>
+      </c>
+      <c r="B8" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3BD</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>3A1</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="18"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1228,25 +1304,25 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <f t="shared" si="1"/>
-        <v>958</v>
-      </c>
-      <c r="B9" s="20" t="str">
+        <v>930</v>
+      </c>
+      <c r="B9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3BE</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="22" t="s">
+        <v>3A2</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="E9" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="18"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1259,23 +1335,23 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <f t="shared" si="1"/>
-        <v>959</v>
-      </c>
-      <c r="B10" s="20" t="str">
+        <v>931</v>
+      </c>
+      <c r="B10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3BF</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="22" t="s">
+        <v>3A3</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>91</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
@@ -1290,23 +1366,23 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="B11" s="20" t="str">
+        <v>932</v>
+      </c>
+      <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C0</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="22" t="s">
+        <v>3A4</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>93</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
@@ -1321,23 +1397,23 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <f t="shared" si="1"/>
-        <v>961</v>
-      </c>
-      <c r="B12" s="20" t="str">
+        <v>933</v>
+      </c>
+      <c r="B12" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C1</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>97</v>
+        <v>3A5</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
@@ -1352,23 +1428,23 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <f t="shared" si="1"/>
-        <v>962</v>
-      </c>
-      <c r="B13" s="20" t="str">
+        <v>934</v>
+      </c>
+      <c r="B13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C2</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>60</v>
+        <v>3A6</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
@@ -1383,23 +1459,23 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <f t="shared" si="1"/>
-        <v>963</v>
-      </c>
-      <c r="B14" s="20" t="str">
+        <v>935</v>
+      </c>
+      <c r="B14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C3</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>62</v>
+        <v>3A7</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>73</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
@@ -1414,23 +1490,23 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <f t="shared" si="1"/>
-        <v>964</v>
-      </c>
-      <c r="B15" s="20" t="str">
+        <v>936</v>
+      </c>
+      <c r="B15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C4</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>87</v>
+        <v>3A8</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
@@ -1445,23 +1521,23 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <f t="shared" si="1"/>
-        <v>965</v>
-      </c>
-      <c r="B16" s="20" t="str">
+        <v>937</v>
+      </c>
+      <c r="B16" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C5</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>99</v>
+        <v>3A9</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
@@ -1476,23 +1552,23 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <f t="shared" si="1"/>
-        <v>966</v>
-      </c>
-      <c r="B17" s="20" t="str">
+        <v>938</v>
+      </c>
+      <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C6</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>100</v>
+        <v>3AA</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
@@ -1507,23 +1583,23 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <f t="shared" si="1"/>
-        <v>967</v>
-      </c>
-      <c r="B18" s="20" t="str">
+        <v>939</v>
+      </c>
+      <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C7</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>102</v>
+        <v>3AB</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
@@ -1538,23 +1614,23 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <f t="shared" si="1"/>
-        <v>968</v>
-      </c>
-      <c r="B19" s="20" t="str">
+        <v>940</v>
+      </c>
+      <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C8</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>60</v>
+        <v>3AC</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
@@ -1569,23 +1645,23 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <f t="shared" si="1"/>
-        <v>969</v>
-      </c>
-      <c r="B20" s="20" t="str">
+        <v>941</v>
+      </c>
+      <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3C9</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>62</v>
+        <v>3AD</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
@@ -1600,23 +1676,23 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <f t="shared" si="1"/>
-        <v>970</v>
-      </c>
-      <c r="B21" s="20" t="str">
+        <v>942</v>
+      </c>
+      <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3CA</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>87</v>
+        <v>3AE</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>73</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
@@ -1631,23 +1707,23 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <f t="shared" si="1"/>
-        <v>971</v>
-      </c>
-      <c r="B22" s="20" t="str">
+        <v>943</v>
+      </c>
+      <c r="B22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3CB</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>104</v>
+        <v>3AF</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
@@ -1662,23 +1738,23 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <f t="shared" si="1"/>
-        <v>972</v>
-      </c>
-      <c r="B23" s="20" t="str">
+        <v>944</v>
+      </c>
+      <c r="B23" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3CC</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>91</v>
+        <v>3B0</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
@@ -1693,23 +1769,23 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <f t="shared" si="1"/>
-        <v>973</v>
-      </c>
-      <c r="B24" s="20" t="str">
+        <v>945</v>
+      </c>
+      <c r="B24" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3CD</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>100</v>
+        <v>3B1</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
@@ -1724,23 +1800,23 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <f t="shared" si="1"/>
-        <v>974</v>
-      </c>
-      <c r="B25" s="20" t="str">
+        <v>946</v>
+      </c>
+      <c r="B25" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3CE</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>106</v>
+        <v>3B2</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
@@ -1755,23 +1831,23 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <f t="shared" si="1"/>
-        <v>975</v>
-      </c>
-      <c r="B26" s="20" t="str">
+        <v>947</v>
+      </c>
+      <c r="B26" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3CF</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>113</v>
+        <v>3B3</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
@@ -1786,23 +1862,23 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <f t="shared" si="1"/>
-        <v>976</v>
-      </c>
-      <c r="B27" s="20" t="str">
+        <v>948</v>
+      </c>
+      <c r="B27" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3D0</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>113</v>
+        <v>3B4</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
@@ -1817,23 +1893,23 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="13"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <f t="shared" si="1"/>
-        <v>977</v>
-      </c>
-      <c r="B28" s="20" t="str">
+        <v>949</v>
+      </c>
+      <c r="B28" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3D1</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>113</v>
+        <v>3B5</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
@@ -1848,23 +1924,23 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="13"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <f t="shared" si="1"/>
-        <v>978</v>
-      </c>
-      <c r="B29" s="20" t="str">
+        <v>950</v>
+      </c>
+      <c r="B29" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>3D2</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>115</v>
+        <v>3B6</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
@@ -1879,11 +1955,24 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="22"/>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <f t="shared" si="1"/>
+        <v>951</v>
+      </c>
+      <c r="B30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>3B7</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1897,23 +1986,11 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>1755</v>
-      </c>
-      <c r="B31" s="20" t="str">
-        <f>DEC2HEX(A31)</f>
-        <v>6DB</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>64</v>
-      </c>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1927,54 +2004,53 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <f>A31+1</f>
-        <v>1756</v>
-      </c>
-      <c r="B32" s="20" t="str">
-        <f t="shared" ref="B32:B46" si="2">DEC2HEX(A32)</f>
-        <v>6DC</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>66</v>
+        <v>1791</v>
+      </c>
+      <c r="B32" s="40" t="str">
+        <f>DEC2HEX(A32)</f>
+        <v>6FF</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="18"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="18"/>
+      <c r="O32" s="16"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <f t="shared" ref="A33:A46" si="3">A32+1</f>
-        <v>1757</v>
-      </c>
-      <c r="B33" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>6DD</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>68</v>
+        <f>A32+1</f>
+        <v>1792</v>
+      </c>
+      <c r="B33" s="31" t="str">
+        <f t="shared" ref="B33:B45" si="2">DEC2HEX(A33)</f>
+        <v>700</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
@@ -1984,28 +2060,28 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="18"/>
+      <c r="O33" s="16"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <f t="shared" si="3"/>
-        <v>1758</v>
-      </c>
-      <c r="B34" s="20" t="str">
+        <f t="shared" ref="A34:A45" si="3">A33+1</f>
+        <v>1793</v>
+      </c>
+      <c r="B34" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6DE</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>70</v>
+        <v>701</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
@@ -2020,23 +2096,23 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <f t="shared" si="3"/>
-        <v>1759</v>
-      </c>
-      <c r="B35" s="20" t="str">
+        <v>1794</v>
+      </c>
+      <c r="B35" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6DF</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>74</v>
+        <v>702</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>105</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
@@ -2051,23 +2127,23 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <f t="shared" si="3"/>
-        <v>1760</v>
-      </c>
-      <c r="B36" s="20" t="str">
+        <v>1795</v>
+      </c>
+      <c r="B36" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E0</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>73</v>
+        <v>703</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
@@ -2082,23 +2158,23 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="13"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <f t="shared" si="3"/>
-        <v>1761</v>
-      </c>
-      <c r="B37" s="20" t="str">
+        <v>1796</v>
+      </c>
+      <c r="B37" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E1</v>
-      </c>
-      <c r="C37" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="C37" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>76</v>
+      <c r="D37" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
@@ -2113,23 +2189,23 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="13"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <f t="shared" si="3"/>
-        <v>1762</v>
-      </c>
-      <c r="B38" s="20" t="str">
+        <v>1797</v>
+      </c>
+      <c r="B38" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E2</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>76</v>
+        <v>705</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
@@ -2144,23 +2220,23 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="13"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <f t="shared" si="3"/>
-        <v>1763</v>
-      </c>
-      <c r="B39" s="20" t="str">
+        <v>1798</v>
+      </c>
+      <c r="B39" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E3</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>79</v>
+        <v>706</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
@@ -2175,23 +2251,23 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="13"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <f t="shared" si="3"/>
-        <v>1764</v>
-      </c>
-      <c r="B40" s="20" t="str">
+        <v>1799</v>
+      </c>
+      <c r="B40" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E4</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>80</v>
+        <v>707</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
@@ -2206,23 +2282,23 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="13"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <f t="shared" si="3"/>
-        <v>1765</v>
-      </c>
-      <c r="B41" s="20" t="str">
+        <v>1800</v>
+      </c>
+      <c r="B41" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E5</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>82</v>
+        <v>708</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
@@ -2237,23 +2313,23 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="13"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <f t="shared" si="3"/>
-        <v>1766</v>
-      </c>
-      <c r="B42" s="20" t="str">
+        <v>1801</v>
+      </c>
+      <c r="B42" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E6</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>117</v>
+        <v>709</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
@@ -2268,23 +2344,23 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="13"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <f t="shared" si="3"/>
-        <v>1767</v>
-      </c>
-      <c r="B43" s="20" t="str">
+        <v>1802</v>
+      </c>
+      <c r="B43" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E7</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>85</v>
+        <v>70A</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
@@ -2299,23 +2375,23 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="13"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <f t="shared" si="3"/>
-        <v>1768</v>
-      </c>
-      <c r="B44" s="20" t="str">
+        <v>1803</v>
+      </c>
+      <c r="B44" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>6E8</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>116</v>
+        <v>70B</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="6"/>
@@ -2330,23 +2406,23 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <f t="shared" si="3"/>
-        <v>1769</v>
-      </c>
-      <c r="B45" s="20" t="str">
+        <v>1804</v>
+      </c>
+      <c r="B45" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>6E9</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>112</v>
+        <v>70C</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
@@ -2361,24 +2437,11 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="13"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
-        <f t="shared" si="3"/>
-        <v>1770</v>
-      </c>
-      <c r="B46" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>6EA</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>112</v>
-      </c>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="16"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="27"/>
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -2392,8 +2455,11 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="13"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="16"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="27"/>
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -2407,15 +2473,8 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="str">
-        <f>_xlfn.CONCAT(_xlfn.TEXTJOIN(" &amp; ",FALSE,B3:E3)," \\")</f>
-        <v>3B8 &amp; 0200 &amp; CLA &amp; Очистка аккумулятора \\</v>
-      </c>
-      <c r="D48" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G4:R4)</f>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="11"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -2429,13 +2488,13 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="13"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="str">
-        <f t="shared" ref="B49:B91" si="4">_xlfn.CONCAT(_xlfn.TEXTJOIN(" &amp; ",FALSE,B4:E4)," \\")</f>
-        <v>3B9 &amp; EE18 &amp; ST IP + 24 &amp; Сохраненине 0 в ячейку 0x3D2 \\</v>
+        <f t="shared" ref="B49:B76" si="4">_xlfn.CONCAT(_xlfn.TEXTJOIN(" &amp; ",FALSE,B3:E3)," \\")</f>
+        <v>39C &amp; 0200 &amp; CLA &amp; Очистка аккумулятора \\</v>
       </c>
       <c r="D49" s="10" t="str">
-        <f t="shared" ref="D49:D90" si="5">_xlfn.TEXTJOIN(" &amp; ",FALSE,G5:R5)</f>
+        <f t="shared" ref="D49:D92" si="5">_xlfn.TEXTJOIN(" &amp; ",FALSE,G4:R4)</f>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
       <c r="G49" s="5"/>
@@ -2451,10 +2510,10 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="13"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3BA &amp; AE14 &amp; LD IP + 20 &amp; Загрузка в AC содержимого из ячейки 0x3CF \\</v>
+        <v>39D &amp; EE19 &amp; ST IP + 25 &amp; Сохраненине 0 в ячейку 0x3B7 \\</v>
       </c>
       <c r="D50" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2473,10 +2532,10 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3BB &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
+        <v>39E &amp; AE16 &amp; LD IP + 22 &amp; Загрузка в AC содержимого из ячейки 0x3B5 \\</v>
       </c>
       <c r="D51" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2495,10 +2554,10 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="13"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3BC &amp; D6DB &amp; CALL $6DB &amp; Вызов подпрограммы по адресу 0x6DB \\</v>
+        <v>39F &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
       </c>
       <c r="D52" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2517,10 +2576,10 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="13"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3BD &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
+        <v>3A0 &amp; D6FF &amp; CALL $6FF &amp; Вызов подпрограммы по адресу 0x6FF \\</v>
       </c>
       <c r="D53" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2539,10 +2598,10 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="13"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3BE &amp; 0740 &amp; DEC &amp; Декремент AC \\</v>
+        <v>3A1 &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
       </c>
       <c r="D54" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2561,10 +2620,10 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="13"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3BF &amp; 4E12 &amp; ADD IP + 18 &amp; Сложение AC с содержимым ячейки 0x3D2 \\</v>
+        <v>3A2 &amp; 6E14 &amp; SUB IP + 20 &amp; Вычитание из AC содержимого ячейки 0x3B7 \\</v>
       </c>
       <c r="D55" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2583,10 +2642,10 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="13"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C0 &amp; EE11 &amp; ST IP + 17 &amp; Сохраненине AC в ячейку 0x3D2 \\</v>
+        <v>3A3 &amp; EE13 &amp; ST IP + 19 &amp; Сохраненине AC в ячейку 0x3B7 \\</v>
       </c>
       <c r="D56" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2605,10 +2664,10 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="13"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C1 &amp; AE0E &amp; LD IP + 14 &amp; Загрузка в AC содержимого из ячейки 0x3D0 \\</v>
+        <v>3A4 &amp; AE0F &amp; ST IP + 15 &amp; Загрузка в AC содержимого из ячейки 0x3B4 \\</v>
       </c>
       <c r="D57" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2627,10 +2686,10 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="13"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C2 &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
+        <v>3A5 &amp; 0740 &amp; DEC &amp; Декремент AC \\</v>
       </c>
       <c r="D58" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2649,10 +2708,10 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="13"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C3 &amp; D6DB &amp; CALL $6DB &amp; Вызов подпрограммы по адресу 0x6DB \\</v>
+        <v>3A6 &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
       </c>
       <c r="D59" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2671,10 +2730,10 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="13"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C4 &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
+        <v>3A7 &amp; D6FF &amp; CALL $6FF &amp; Вызов подпрограммы по адресу 0x6FF \\</v>
       </c>
       <c r="D60" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2693,10 +2752,10 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="13"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C5 &amp; 6E0C &amp; SUB IP + 12 &amp; Вычитание из AC содержимого ячейки 0x3D2 \\</v>
+        <v>3A8 &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
       </c>
       <c r="D61" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2715,10 +2774,10 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C6 &amp; EE0B &amp; ST IP + 11 &amp; Сохранение AC в ячейку 0x3D2 \\</v>
+        <v>3A9 &amp; 4E0D &amp; SUB IP + 13 &amp; Вычитание из AC содержимого ячейки 0x3B7 \\</v>
       </c>
       <c r="D62" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2737,303 +2796,296 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="14"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C7 &amp; AE09 &amp; LD IP + 9 &amp; Загрузка в AC содержимого ячейки 0x3D1 \\</v>
+        <v>3AA &amp; EE0C &amp; ST IP + 12 &amp; Сохраненине AC в ячейку 0x3B7 \\</v>
       </c>
       <c r="D63" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C8 &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
+        <v>3AB &amp; AE0A &amp; LD IP + 10 &amp; Загрузка в AC содержимого ячейки 0x3B6 \\</v>
       </c>
       <c r="D64" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3C9 &amp; D6DB &amp; CALL $6DB &amp; Вызов подпрограммы по адресу 0x6DB \\</v>
+        <v>3AC &amp; 0700 &amp; INC &amp; Инкремент AC \\</v>
       </c>
       <c r="D65" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3CA &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
+        <v>3AD &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
       </c>
       <c r="D66" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3CB &amp; 0700 &amp; INC &amp; Инкремент AC \\</v>
+        <v>3AE &amp; D6FF &amp; CALL $6FF &amp; Вызов подпрограммы по адресу 0x6FF \\</v>
       </c>
       <c r="D67" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3CC &amp; 4E05 &amp; ADD IP + 5 &amp; Сложение AC с содержимым ячейки 0x3D2 \\</v>
+        <v>3AF &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
       </c>
       <c r="D68" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3CD &amp; EE04 &amp; ST IP + 4 &amp; Сохранение AC в ячейку 0x3D2 \\</v>
+        <v>3B0 &amp; 0740 &amp; DEC &amp; Декремент AC \\</v>
       </c>
       <c r="D69" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3CE &amp; 0100 &amp; HLT &amp; Остановка ТГ \\</v>
+        <v>3B1 &amp; 4E05 &amp; SUB IP + 5 &amp; Вычитание из AC содержимого ячейки 0x3B7 \\</v>
       </c>
       <c r="D70" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3CF &amp; ZZZZ &amp; Z &amp; Переменная \\</v>
+        <v>3B2 &amp; EE04 &amp; ST IP + 4 &amp; Сохранение AC в ячейку 0x3B7 \\</v>
       </c>
       <c r="D71" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3D0 &amp; YYYY &amp; Y &amp; Переменная \\</v>
+        <v>3B3 &amp; 0100 &amp; HLT &amp; Остановка ТГ \\</v>
       </c>
       <c r="D72" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3D1 &amp; XXXX &amp; X &amp; Переменная \\</v>
+        <v>3B4 &amp; ZZZZ &amp; Z &amp; Переменная \\</v>
       </c>
       <c r="D73" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>3D2 &amp; 0028 &amp; R &amp; Результат \\</v>
+        <v>3B5 &amp; YYYY &amp; Y &amp; Переменная \\</v>
       </c>
       <c r="D74" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  \\</v>
+        <v>3B6 &amp; XXXX &amp; X &amp; Переменная \\</v>
       </c>
       <c r="D75" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>6DB &amp; AC01 &amp; LD &amp;1 &amp; Чтение из стека входного параметра \\</v>
+        <v>3B7 &amp; 0D08 &amp; R &amp; Результат \\</v>
       </c>
       <c r="D76" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6DC &amp; F204 &amp; BMI IP + 4 &amp; Если значение параметра меньше нуля, то переход в ячейку 0x6E1 \\</v>
+        <f t="shared" ref="B77:B92" si="6">_xlfn.CONCAT(_xlfn.TEXTJOIN(" &amp; ",FALSE,B32:E32)," \\")</f>
+        <v>6FF &amp; AC01 &amp; LD &amp;1 &amp; Чтение из стека входного параметра \\</v>
       </c>
       <c r="D77" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6DD &amp; F003 &amp; BEQ IP + 3 &amp; Если значение параметра равно нулю, то переход в ячейку 0x6E1 \\</v>
+        <f t="shared" si="6"/>
+        <v>700 &amp; F207 &amp; BMI IP + 7 &amp; Если значение параметра меньше нуля, то переход в ячейку 0x708 \\</v>
       </c>
       <c r="D78" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6DE &amp; 7E0A &amp; CMP IP + 10 &amp; Сравнение AC с содержимым ячейки 0x6E9 \\</v>
+        <f t="shared" si="6"/>
+        <v>701 &amp; 7E09 &amp; CMP IP + 9 &amp; Сравнение AC с содержимым ячейки 0x70B \\</v>
       </c>
       <c r="D79" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6DF &amp; F006 &amp; BEQ IP + 6 &amp; Если значение параметра равно содержимогу ячейки 0x6E9, то переход в ячейку 0x6E6 \\</v>
+        <f t="shared" si="6"/>
+        <v>702 &amp; F905 &amp; BGE IP + 5 &amp; Если значение параметра больше или равно, то переход в ячейку 0x708 \\</v>
       </c>
       <c r="D80" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E0 &amp; F805 &amp; BLT IP + 5 &amp; Если значение параметра меньше содержимого ячейки 0x6E9, то переход в ячейку 0x6E6 \\</v>
+        <f t="shared" si="6"/>
+        <v>703 &amp; 0500 &amp; ASL &amp; Арифметический сдвиг влево \\</v>
       </c>
       <c r="D81" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E1 &amp; 0500 &amp; ASL &amp; Арифметический сдвиг влево \\</v>
+        <f t="shared" si="6"/>
+        <v>704 &amp; 0500 &amp; ASL &amp; Арифметический сдвиг влево \\</v>
       </c>
       <c r="D82" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E2 &amp; 0500 &amp; ASL &amp; Арифметический сдвиг влево \\</v>
+        <f t="shared" si="6"/>
+        <v>705 &amp; 4C01 &amp; ADD &amp;1 &amp; Сложение входного параметра с AC \\</v>
       </c>
       <c r="D83" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E3 &amp; 6С01 &amp; SUB &amp;1 &amp; Вычитание из AC входного параметра \\</v>
+        <f t="shared" si="6"/>
+        <v>706 &amp; 4E05 &amp; ADD IP + 5 &amp; Сложение сожержимого ячейки 0x70C с AC \\</v>
       </c>
       <c r="D84" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E4 &amp; 4E05 &amp; ADD IP + 5 &amp; Сложение с AC сожержимого ячейки 0x6EA \\</v>
+        <f t="shared" si="6"/>
+        <v>707 &amp; CE01 &amp; BR IP + 1 &amp; Безусловный переход в ячейку 0x709 \\</v>
       </c>
       <c r="D85" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E5 &amp; CE01 &amp; BR IP + 1 &amp; Безусловный переход в ячейку 0x6E7 \\</v>
+        <f t="shared" si="6"/>
+        <v>708 &amp; AE02 &amp; LD IP + 2 &amp; Загрузка в AC содержимого ячейки 0x70B \\</v>
       </c>
       <c r="D86" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E6 &amp; AE02 &amp; LD IP + 2 &amp; Загрузка в AC содержимого ячейки 0x6E9 \\</v>
+        <f t="shared" si="6"/>
+        <v>709 &amp; EC01 &amp; ST &amp;1 &amp; Сохранение AC на место входного параметра в стеке \\</v>
       </c>
       <c r="D87" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E7 &amp; EC01 &amp; ST &amp;1 &amp; Сохранение AC на место входного параметра в стеке \\</v>
+        <f t="shared" si="6"/>
+        <v>70A &amp; 0A00 &amp; RET &amp; Возврат из подпрограммы \\</v>
       </c>
       <c r="D88" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E8 &amp; 0A00 &amp; RET &amp; Возврат из подпрограммы \\</v>
+        <f t="shared" si="6"/>
+        <v>70B &amp; 0B10 &amp; a &amp; Локальная переменная \\</v>
       </c>
       <c r="D89" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6E9 &amp; 0D2F &amp; a &amp; Локальная переменная \\</v>
+        <f t="shared" si="6"/>
+        <v>70C &amp; 00FA &amp; b &amp; Локальная переменная \\</v>
       </c>
       <c r="D90" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>6EA &amp; 0026 &amp; b &amp; Локальная переменная \\</v>
-      </c>
-      <c r="D91" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G47:R47)</f>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="11"/>
     </row>
   </sheetData>

--- a/Lab 4/Calculations.xlsx
+++ b/Lab 4/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vadim/Documents/GitHub/Kholoshnia/computer-professional-basics/Lab 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3737A-70D7-3D4C-A7A4-7221CF8950C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A3C549-8926-0246-83BF-25B2B783AF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="1320" windowWidth="22180" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="1540" windowWidth="24800" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="209">
   <si>
     <t>Адрес ячейки</t>
   </si>
@@ -370,13 +370,301 @@
   </si>
   <si>
     <t>Сравнение AC с содержимым ячейки 0x70B</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>39C</t>
+  </si>
+  <si>
+    <t>39D</t>
+  </si>
+  <si>
+    <t>039C</t>
+  </si>
+  <si>
+    <t>39E</t>
+  </si>
+  <si>
+    <t>3B7</t>
+  </si>
+  <si>
+    <t>39F</t>
+  </si>
+  <si>
+    <t>3B5</t>
+  </si>
+  <si>
+    <t>60CC</t>
+  </si>
+  <si>
+    <t>3A0</t>
+  </si>
+  <si>
+    <t>7FF</t>
+  </si>
+  <si>
+    <t>039F</t>
+  </si>
+  <si>
+    <t>6FF</t>
+  </si>
+  <si>
+    <t>7FE</t>
+  </si>
+  <si>
+    <t>03A1</t>
+  </si>
+  <si>
+    <t>70B</t>
+  </si>
+  <si>
+    <t>70A</t>
+  </si>
+  <si>
+    <t>3A1</t>
+  </si>
+  <si>
+    <t>070A</t>
+  </si>
+  <si>
+    <t>3A2</t>
+  </si>
+  <si>
+    <t>3A3</t>
+  </si>
+  <si>
+    <t>3A4</t>
+  </si>
+  <si>
+    <t>3A5</t>
+  </si>
+  <si>
+    <t>3B4</t>
+  </si>
+  <si>
+    <t>40ED</t>
+  </si>
+  <si>
+    <t>000F</t>
+  </si>
+  <si>
+    <t>3A6</t>
+  </si>
+  <si>
+    <t>03A5</t>
+  </si>
+  <si>
+    <t>40EC</t>
+  </si>
+  <si>
+    <t>3A7</t>
+  </si>
+  <si>
+    <t>03A6</t>
+  </si>
+  <si>
+    <t>03A8</t>
+  </si>
+  <si>
+    <t>3A8</t>
+  </si>
+  <si>
+    <t>3A9</t>
+  </si>
+  <si>
+    <t>3AA</t>
+  </si>
+  <si>
+    <t>000D</t>
+  </si>
+  <si>
+    <t>3AB</t>
+  </si>
+  <si>
+    <t>000C</t>
+  </si>
+  <si>
+    <t>3AC</t>
+  </si>
+  <si>
+    <t>3B6</t>
+  </si>
+  <si>
+    <t>000A</t>
+  </si>
+  <si>
+    <t>3AD</t>
+  </si>
+  <si>
+    <t>03AC</t>
+  </si>
+  <si>
+    <t>3AE</t>
+  </si>
+  <si>
+    <t>03AD</t>
+  </si>
+  <si>
+    <t>03AF</t>
+  </si>
+  <si>
+    <t>0C08</t>
+  </si>
+  <si>
+    <t>70C</t>
+  </si>
+  <si>
+    <t>1F0E</t>
+  </si>
+  <si>
+    <t>3AF</t>
+  </si>
+  <si>
+    <t>3B0</t>
+  </si>
+  <si>
+    <t>3B1</t>
+  </si>
+  <si>
+    <t>03B0</t>
+  </si>
+  <si>
+    <t>1F0D</t>
+  </si>
+  <si>
+    <t>3B2</t>
+  </si>
+  <si>
+    <t>352D</t>
+  </si>
+  <si>
+    <t>3B3</t>
+  </si>
+  <si>
+    <t>03B3</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0604</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>1E14</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>Сложение AC с содержимым ячейки 0x3B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,20 +680,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,7 +702,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -585,11 +868,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -615,9 +910,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -635,23 +927,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -727,15 +1010,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,8 +1034,38 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1040,1574 +1344,4169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R94"/>
+  <dimension ref="A2:AR98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="143" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="10"/>
-    <col min="2" max="2" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="10" customWidth="1"/>
-    <col min="9" max="16" width="8.83203125" style="10"/>
-    <col min="17" max="17" width="8" style="10" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="9" customWidth="1"/>
+    <col min="9" max="16" width="8.83203125" style="9"/>
+    <col min="17" max="17" width="8" style="9" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="52"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="S2" s="60"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>924</v>
       </c>
-      <c r="B3" s="18" t="str">
+      <c r="B3" s="16" t="str">
         <f>DEC2HEX($A$3)</f>
         <v>39C</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="40" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="S3" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+    </row>
+    <row r="4" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <f>A3+1</f>
         <v>925</v>
       </c>
-      <c r="B4" s="18" t="str">
+      <c r="B4" s="16" t="str">
         <f t="shared" ref="B4:B30" si="0">DEC2HEX(A4)</f>
         <v>39D</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="G4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <f t="shared" ref="A5:A30" si="1">A4+1</f>
         <v>926</v>
       </c>
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>39E</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="G5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+    </row>
+    <row r="6" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <f t="shared" si="1"/>
         <v>927</v>
       </c>
-      <c r="B6" s="18" t="str">
+      <c r="B6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>39F</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="G6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+    </row>
+    <row r="7" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <f t="shared" si="1"/>
         <v>928</v>
       </c>
-      <c r="B7" s="18" t="str">
+      <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A0</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="G7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="58"/>
+    </row>
+    <row r="8" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <f t="shared" si="1"/>
         <v>929</v>
       </c>
-      <c r="B8" s="18" t="str">
+      <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="G8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="58"/>
+      <c r="AO8" s="58"/>
+      <c r="AP8" s="58"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="58"/>
+    </row>
+    <row r="9" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <f t="shared" si="1"/>
         <v>930</v>
       </c>
-      <c r="B9" s="18" t="str">
+      <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A2</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="G9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="58"/>
+    </row>
+    <row r="10" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>931</v>
       </c>
-      <c r="B10" s="18" t="str">
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A3</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="G10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="58"/>
+    </row>
+    <row r="11" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <f t="shared" si="1"/>
         <v>932</v>
       </c>
-      <c r="B11" s="18" t="str">
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A4</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="G11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+    </row>
+    <row r="12" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <f t="shared" si="1"/>
         <v>933</v>
       </c>
-      <c r="B12" s="18" t="str">
+      <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A5</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="G12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+    </row>
+    <row r="13" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <f t="shared" si="1"/>
         <v>934</v>
       </c>
-      <c r="B13" s="18" t="str">
+      <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A6</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="G13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+    </row>
+    <row r="14" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <f t="shared" si="1"/>
         <v>935</v>
       </c>
-      <c r="B14" s="18" t="str">
+      <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A7</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="G14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+    </row>
+    <row r="15" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <f t="shared" si="1"/>
         <v>936</v>
       </c>
-      <c r="B15" s="18" t="str">
+      <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A8</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="G15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="58"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+    </row>
+    <row r="16" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>937</v>
       </c>
-      <c r="B16" s="18" t="str">
+      <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3A9</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="E16" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="58"/>
+    </row>
+    <row r="17" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>938</v>
       </c>
-      <c r="B17" s="18" t="str">
+      <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3AA</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="G17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+    </row>
+    <row r="18" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <f t="shared" si="1"/>
         <v>939</v>
       </c>
-      <c r="B18" s="18" t="str">
+      <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3AB</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="G18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="58"/>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="58"/>
+    </row>
+    <row r="19" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <f t="shared" si="1"/>
         <v>940</v>
       </c>
-      <c r="B19" s="18" t="str">
+      <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3AC</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="G19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="58"/>
+    </row>
+    <row r="20" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <f t="shared" si="1"/>
         <v>941</v>
       </c>
-      <c r="B20" s="18" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3AD</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="G20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="58"/>
+    </row>
+    <row r="21" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <f t="shared" si="1"/>
         <v>942</v>
       </c>
-      <c r="B21" s="18" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3AE</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="G21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="58"/>
+      <c r="AR21" s="58"/>
+    </row>
+    <row r="22" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>943</v>
       </c>
-      <c r="B22" s="18" t="str">
+      <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3AF</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="G22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="58"/>
+    </row>
+    <row r="23" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <f t="shared" si="1"/>
         <v>944</v>
       </c>
-      <c r="B23" s="18" t="str">
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3B0</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="G23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="58"/>
+      <c r="AL23" s="58"/>
+      <c r="AM23" s="58"/>
+      <c r="AN23" s="58"/>
+      <c r="AO23" s="58"/>
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="58"/>
+      <c r="AR23" s="58"/>
+    </row>
+    <row r="24" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <f t="shared" si="1"/>
         <v>945</v>
       </c>
-      <c r="B24" s="18" t="str">
+      <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3B1</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="13"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="E24" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="58"/>
+      <c r="AL24" s="58"/>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="58"/>
+      <c r="AO24" s="58"/>
+      <c r="AP24" s="58"/>
+      <c r="AQ24" s="58"/>
+      <c r="AR24" s="58"/>
+    </row>
+    <row r="25" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <f t="shared" si="1"/>
         <v>946</v>
       </c>
-      <c r="B25" s="18" t="str">
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3B2</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="G25" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="58"/>
+      <c r="AL25" s="58"/>
+      <c r="AM25" s="58"/>
+      <c r="AN25" s="58"/>
+      <c r="AO25" s="58"/>
+      <c r="AP25" s="58"/>
+      <c r="AQ25" s="58"/>
+      <c r="AR25" s="58"/>
+    </row>
+    <row r="26" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <f t="shared" si="1"/>
         <v>947</v>
       </c>
-      <c r="B26" s="18" t="str">
+      <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3B3</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="G26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="58"/>
+      <c r="AL26" s="58"/>
+      <c r="AM26" s="58"/>
+      <c r="AN26" s="58"/>
+      <c r="AO26" s="58"/>
+      <c r="AP26" s="58"/>
+      <c r="AQ26" s="58"/>
+      <c r="AR26" s="58"/>
+    </row>
+    <row r="27" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <f t="shared" si="1"/>
         <v>948</v>
       </c>
-      <c r="B27" s="18" t="str">
+      <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3B4</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="13"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="G27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="58"/>
+      <c r="AK27" s="58"/>
+      <c r="AL27" s="58"/>
+      <c r="AM27" s="58"/>
+      <c r="AN27" s="58"/>
+      <c r="AO27" s="58"/>
+      <c r="AP27" s="58"/>
+      <c r="AQ27" s="58"/>
+      <c r="AR27" s="58"/>
+    </row>
+    <row r="28" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>949</v>
       </c>
-      <c r="B28" s="18" t="str">
+      <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3B5</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="G28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="58"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="58"/>
+      <c r="AO28" s="58"/>
+      <c r="AP28" s="58"/>
+      <c r="AQ28" s="58"/>
+      <c r="AR28" s="58"/>
+    </row>
+    <row r="29" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <f t="shared" si="1"/>
         <v>950</v>
       </c>
-      <c r="B29" s="18" t="str">
+      <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3B6</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+      <c r="G29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="58"/>
+      <c r="AK29" s="58"/>
+      <c r="AL29" s="58"/>
+      <c r="AM29" s="58"/>
+      <c r="AN29" s="58"/>
+      <c r="AO29" s="58"/>
+      <c r="AP29" s="58"/>
+      <c r="AQ29" s="58"/>
+      <c r="AR29" s="58"/>
+    </row>
+    <row r="30" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <f t="shared" si="1"/>
         <v>951</v>
       </c>
-      <c r="B30" s="19" t="str">
+      <c r="B30" s="17" t="str">
         <f t="shared" si="0"/>
         <v>3B7</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="13"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+      <c r="G30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="58"/>
+      <c r="AK30" s="58"/>
+      <c r="AL30" s="58"/>
+      <c r="AM30" s="58"/>
+      <c r="AN30" s="58"/>
+      <c r="AO30" s="58"/>
+      <c r="AP30" s="58"/>
+      <c r="AQ30" s="58"/>
+      <c r="AR30" s="58"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="G31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="58"/>
+      <c r="AK31" s="58"/>
+      <c r="AL31" s="58"/>
+      <c r="AM31" s="58"/>
+      <c r="AN31" s="58"/>
+      <c r="AO31" s="58"/>
+      <c r="AP31" s="58"/>
+      <c r="AQ31" s="58"/>
+      <c r="AR31" s="58"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>1791</v>
       </c>
-      <c r="B32" s="40" t="str">
+      <c r="B32" s="36" t="str">
         <f>DEC2HEX(A32)</f>
         <v>6FF</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="13"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+      <c r="G32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="58"/>
+      <c r="AK32" s="58"/>
+      <c r="AL32" s="58"/>
+      <c r="AM32" s="58"/>
+      <c r="AN32" s="58"/>
+      <c r="AO32" s="58"/>
+      <c r="AP32" s="58"/>
+      <c r="AQ32" s="58"/>
+      <c r="AR32" s="58"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <f>A32+1</f>
         <v>1792</v>
       </c>
-      <c r="B33" s="31" t="str">
+      <c r="B33" s="27" t="str">
         <f t="shared" ref="B33:B45" si="2">DEC2HEX(A33)</f>
         <v>700</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="13"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="G33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="58"/>
+      <c r="AK33" s="58"/>
+      <c r="AL33" s="58"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="58"/>
+      <c r="AO33" s="58"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="58"/>
+      <c r="AR33" s="58"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <f t="shared" ref="A34:A45" si="3">A33+1</f>
         <v>1793</v>
       </c>
-      <c r="B34" s="31" t="str">
+      <c r="B34" s="27" t="str">
         <f t="shared" si="2"/>
         <v>701</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="13"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="G34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="58"/>
+      <c r="AO34" s="58"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="58"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <f t="shared" si="3"/>
         <v>1794</v>
       </c>
-      <c r="B35" s="31" t="str">
+      <c r="B35" s="27" t="str">
         <f t="shared" si="2"/>
         <v>702</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="13"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
+      <c r="G35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="58"/>
+      <c r="AJ35" s="58"/>
+      <c r="AK35" s="58"/>
+      <c r="AL35" s="58"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="58"/>
+      <c r="AO35" s="58"/>
+      <c r="AP35" s="58"/>
+      <c r="AQ35" s="58"/>
+      <c r="AR35" s="58"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <f t="shared" si="3"/>
         <v>1795</v>
       </c>
-      <c r="B36" s="31" t="str">
+      <c r="B36" s="27" t="str">
         <f t="shared" si="2"/>
         <v>703</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
+      <c r="G36" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="58"/>
+      <c r="AJ36" s="58"/>
+      <c r="AK36" s="58"/>
+      <c r="AL36" s="58"/>
+      <c r="AM36" s="58"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="58"/>
+      <c r="AP36" s="58"/>
+      <c r="AQ36" s="58"/>
+      <c r="AR36" s="58"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <f t="shared" si="3"/>
         <v>1796</v>
       </c>
-      <c r="B37" s="31" t="str">
+      <c r="B37" s="27" t="str">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="13"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
+      <c r="G37" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="U37" s="58"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="58"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="58"/>
+      <c r="AJ37" s="58"/>
+      <c r="AK37" s="58"/>
+      <c r="AL37" s="58"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="58"/>
+      <c r="AO37" s="58"/>
+      <c r="AP37" s="58"/>
+      <c r="AQ37" s="58"/>
+      <c r="AR37" s="58"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <f t="shared" si="3"/>
         <v>1797</v>
       </c>
-      <c r="B38" s="31" t="str">
+      <c r="B38" s="27" t="str">
         <f t="shared" si="2"/>
         <v>705</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="13"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
+      <c r="G38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="58"/>
+      <c r="AJ38" s="58"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="58"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="58"/>
+      <c r="AR38" s="58"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <f t="shared" si="3"/>
         <v>1798</v>
       </c>
-      <c r="B39" s="31" t="str">
+      <c r="B39" s="27" t="str">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="13"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
+      <c r="G39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S39" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="58"/>
+      <c r="AR39" s="58"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <f t="shared" si="3"/>
         <v>1799</v>
       </c>
-      <c r="B40" s="31" t="str">
+      <c r="B40" s="27" t="str">
         <f t="shared" si="2"/>
         <v>707</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="13"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="G40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="58"/>
+      <c r="AC40" s="58"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="58"/>
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="58"/>
+      <c r="AJ40" s="58"/>
+      <c r="AK40" s="58"/>
+      <c r="AL40" s="58"/>
+      <c r="AM40" s="58"/>
+      <c r="AN40" s="58"/>
+      <c r="AO40" s="58"/>
+      <c r="AP40" s="58"/>
+      <c r="AQ40" s="58"/>
+      <c r="AR40" s="58"/>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="B41" s="31" t="str">
+      <c r="B41" s="27" t="str">
         <f t="shared" si="2"/>
         <v>708</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="13"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
+      <c r="G41" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="58"/>
+      <c r="AO41" s="58"/>
+      <c r="AP41" s="58"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="58"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <f t="shared" si="3"/>
         <v>1801</v>
       </c>
-      <c r="B42" s="31" t="str">
+      <c r="B42" s="27" t="str">
         <f t="shared" si="2"/>
         <v>709</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="13"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
+      <c r="G42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U42" s="58"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="58"/>
+      <c r="AB42" s="58"/>
+      <c r="AC42" s="58"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="58"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="58"/>
+      <c r="AO42" s="58"/>
+      <c r="AP42" s="58"/>
+      <c r="AQ42" s="58"/>
+      <c r="AR42" s="58"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <f t="shared" si="3"/>
         <v>1802</v>
       </c>
-      <c r="B43" s="31" t="str">
+      <c r="B43" s="27" t="str">
         <f t="shared" si="2"/>
         <v>70A</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="13"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
+      <c r="G43" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="58"/>
+      <c r="AO43" s="58"/>
+      <c r="AP43" s="58"/>
+      <c r="AQ43" s="58"/>
+      <c r="AR43" s="58"/>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <f t="shared" si="3"/>
         <v>1803</v>
       </c>
-      <c r="B44" s="31" t="str">
+      <c r="B44" s="27" t="str">
         <f t="shared" si="2"/>
         <v>70B</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="13"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+      <c r="G44" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="58"/>
+      <c r="AK44" s="58"/>
+      <c r="AL44" s="58"/>
+      <c r="AM44" s="58"/>
+      <c r="AN44" s="58"/>
+      <c r="AO44" s="58"/>
+      <c r="AP44" s="58"/>
+      <c r="AQ44" s="58"/>
+      <c r="AR44" s="58"/>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
         <f t="shared" si="3"/>
         <v>1804</v>
       </c>
-      <c r="B45" s="32" t="str">
+      <c r="B45" s="28" t="str">
         <f t="shared" si="2"/>
         <v>70C</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="13"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="27"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="13"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="16"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="27"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="13"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="11"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="13"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="str">
+      <c r="G45" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="58"/>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="58"/>
+      <c r="AN45" s="58"/>
+      <c r="AO45" s="58"/>
+      <c r="AP45" s="58"/>
+      <c r="AQ45" s="58"/>
+      <c r="AR45" s="58"/>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B46" s="15"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="23"/>
+      <c r="G46" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="58"/>
+      <c r="AK46" s="58"/>
+      <c r="AL46" s="58"/>
+      <c r="AM46" s="58"/>
+      <c r="AN46" s="58"/>
+      <c r="AO46" s="58"/>
+      <c r="AP46" s="58"/>
+      <c r="AQ46" s="58"/>
+      <c r="AR46" s="58"/>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B47" s="15"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="23"/>
+      <c r="G47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58"/>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="58"/>
+      <c r="AK47" s="58"/>
+      <c r="AL47" s="58"/>
+      <c r="AM47" s="58"/>
+      <c r="AN47" s="58"/>
+      <c r="AO47" s="58"/>
+      <c r="AP47" s="58"/>
+      <c r="AQ47" s="58"/>
+      <c r="AR47" s="58"/>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B48" s="10"/>
+      <c r="G48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="58"/>
+      <c r="AI48" s="58"/>
+      <c r="AJ48" s="58"/>
+      <c r="AK48" s="58"/>
+      <c r="AL48" s="58"/>
+      <c r="AM48" s="58"/>
+      <c r="AN48" s="58"/>
+      <c r="AO48" s="58"/>
+      <c r="AP48" s="58"/>
+      <c r="AQ48" s="58"/>
+      <c r="AR48" s="58"/>
+    </row>
+    <row r="49" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="str">
         <f t="shared" ref="B49:B76" si="4">_xlfn.CONCAT(_xlfn.TEXTJOIN(" &amp; ",FALSE,B3:E3)," \\")</f>
         <v>39C &amp; 0200 &amp; CLA &amp; Очистка аккумулятора \\</v>
       </c>
-      <c r="D49" s="10" t="str">
-        <f t="shared" ref="D49:D92" si="5">_xlfn.TEXTJOIN(" &amp; ",FALSE,G4:R4)</f>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="13"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="11" t="str">
+      <c r="D49" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G4:S4)</f>
+        <v>39C &amp; 0200 &amp; 39C &amp; 0000 &amp; 000 &amp; 0000 &amp; 000 &amp; 0000 &amp; 0000 &amp; 004 &amp; 0100 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="58"/>
+      <c r="AI49" s="58"/>
+      <c r="AJ49" s="58"/>
+      <c r="AK49" s="58"/>
+      <c r="AL49" s="58"/>
+      <c r="AM49" s="58"/>
+      <c r="AN49" s="58"/>
+      <c r="AO49" s="58"/>
+      <c r="AP49" s="58"/>
+      <c r="AQ49" s="58"/>
+      <c r="AR49" s="58"/>
+    </row>
+    <row r="50" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="10" t="str">
         <f t="shared" si="4"/>
         <v>39D &amp; EE19 &amp; ST IP + 25 &amp; Сохраненине 0 в ячейку 0x3B7 \\</v>
       </c>
-      <c r="D50" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="13"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="11" t="str">
+      <c r="D50" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G5:S5)</f>
+        <v>39C &amp; 0200 &amp; 39D &amp; 0200 &amp; 39C &amp; 0200 &amp; 000 &amp; 039C &amp; 0000 &amp; 004 &amp; 0100 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U50" s="58"/>
+      <c r="V50" s="58"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="58"/>
+      <c r="Y50" s="58"/>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="58"/>
+      <c r="AB50" s="58"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="58"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="58"/>
+      <c r="AN50" s="58"/>
+      <c r="AO50" s="58"/>
+      <c r="AP50" s="58"/>
+      <c r="AQ50" s="58"/>
+      <c r="AR50" s="58"/>
+    </row>
+    <row r="51" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="10" t="str">
         <f t="shared" si="4"/>
         <v>39E &amp; AE16 &amp; LD IP + 22 &amp; Загрузка в AC содержимого из ячейки 0x3B5 \\</v>
       </c>
-      <c r="D51" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="13"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="11" t="str">
+      <c r="D51" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G6:S6)</f>
+        <v>39D &amp; EE19 &amp; 39E &amp; EE19 &amp; 3B7 &amp; 0000 &amp; 000 &amp; 0019 &amp; 0000 &amp; 004 &amp; 0100 &amp; 3B7 &amp; 0000</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U51" s="58"/>
+      <c r="V51" s="58"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="58"/>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="58"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
+      <c r="AJ51" s="58"/>
+      <c r="AK51" s="58"/>
+      <c r="AL51" s="58"/>
+      <c r="AM51" s="58"/>
+      <c r="AN51" s="58"/>
+      <c r="AO51" s="58"/>
+      <c r="AP51" s="58"/>
+      <c r="AQ51" s="58"/>
+      <c r="AR51" s="58"/>
+    </row>
+    <row r="52" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="10" t="str">
         <f t="shared" si="4"/>
         <v>39F &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
       </c>
-      <c r="D52" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="13"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="11" t="str">
+      <c r="D52" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G7:S7)</f>
+        <v>39E &amp; AE16 &amp; 39F &amp; AE16 &amp; 3B5 &amp; 60CC &amp; 000 &amp; 0016 &amp; 60CC &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="U52" s="58"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="58"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="58"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="58"/>
+      <c r="AJ52" s="58"/>
+      <c r="AK52" s="58"/>
+      <c r="AL52" s="58"/>
+      <c r="AM52" s="58"/>
+      <c r="AN52" s="58"/>
+      <c r="AO52" s="58"/>
+      <c r="AP52" s="58"/>
+      <c r="AQ52" s="58"/>
+      <c r="AR52" s="58"/>
+    </row>
+    <row r="53" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A0 &amp; D6FF &amp; CALL $6FF &amp; Вызов подпрограммы по адресу 0x6FF \\</v>
       </c>
-      <c r="D53" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="13"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="11" t="str">
+      <c r="D53" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G8:S8)</f>
+        <v>39F &amp; 0C00 &amp; 3A0 &amp; 0C00 &amp; 7FF &amp; 60CC &amp; 7FF &amp; 039F &amp; 60CC &amp; 000 &amp; 0000 &amp; 7FF &amp; 60CC</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="U53" s="58"/>
+      <c r="V53" s="58"/>
+      <c r="W53" s="58"/>
+      <c r="X53" s="58"/>
+      <c r="Y53" s="58"/>
+      <c r="Z53" s="58"/>
+      <c r="AA53" s="58"/>
+      <c r="AB53" s="58"/>
+      <c r="AC53" s="58"/>
+      <c r="AD53" s="58"/>
+      <c r="AE53" s="58"/>
+      <c r="AF53" s="58"/>
+      <c r="AG53" s="58"/>
+      <c r="AH53" s="58"/>
+      <c r="AI53" s="58"/>
+      <c r="AJ53" s="58"/>
+      <c r="AK53" s="58"/>
+      <c r="AL53" s="58"/>
+      <c r="AM53" s="58"/>
+      <c r="AN53" s="58"/>
+      <c r="AO53" s="58"/>
+      <c r="AP53" s="58"/>
+      <c r="AQ53" s="58"/>
+      <c r="AR53" s="58"/>
+    </row>
+    <row r="54" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B54" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A1 &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
       </c>
-      <c r="D54" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G54" s="5"/>
+      <c r="D54" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G9:S9)</f>
+        <v>3A0 &amp; D6FF &amp; 6FF &amp; D6FF &amp; 7FE &amp; 03A1 &amp; 7FE &amp; D6FF &amp; 60CC &amp; 000 &amp; 0000 &amp; 7FE &amp; 03A1</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -2618,18 +5517,46 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="13"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="11" t="str">
+      <c r="R54" s="23"/>
+      <c r="S54" s="6"/>
+      <c r="U54" s="58"/>
+      <c r="V54" s="58"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="58"/>
+      <c r="Z54" s="58"/>
+      <c r="AA54" s="58"/>
+      <c r="AB54" s="58"/>
+      <c r="AC54" s="58"/>
+      <c r="AD54" s="58"/>
+      <c r="AE54" s="58"/>
+      <c r="AF54" s="58"/>
+      <c r="AG54" s="58"/>
+      <c r="AH54" s="58"/>
+      <c r="AI54" s="58"/>
+      <c r="AJ54" s="58"/>
+      <c r="AK54" s="58"/>
+      <c r="AL54" s="58"/>
+      <c r="AM54" s="58"/>
+      <c r="AN54" s="58"/>
+      <c r="AO54" s="58"/>
+      <c r="AP54" s="58"/>
+      <c r="AQ54" s="58"/>
+      <c r="AR54" s="58"/>
+    </row>
+    <row r="55" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A2 &amp; 6E14 &amp; SUB IP + 20 &amp; Вычитание из AC содержимого ячейки 0x3B7 \\</v>
       </c>
-      <c r="D55" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G55" s="5"/>
+      <c r="D55" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G10:S10)</f>
+        <v>6FF &amp; AC01 &amp; 700 &amp; AC01 &amp; 7FF &amp; 60CC &amp; 7FE &amp; 0001 &amp; 60CC &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -2640,18 +5567,46 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
-      <c r="R55" s="13"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="11" t="str">
+      <c r="R55" s="23"/>
+      <c r="S55" s="6"/>
+      <c r="U55" s="58"/>
+      <c r="V55" s="58"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="58"/>
+      <c r="Y55" s="58"/>
+      <c r="Z55" s="58"/>
+      <c r="AA55" s="58"/>
+      <c r="AB55" s="58"/>
+      <c r="AC55" s="58"/>
+      <c r="AD55" s="58"/>
+      <c r="AE55" s="58"/>
+      <c r="AF55" s="58"/>
+      <c r="AG55" s="58"/>
+      <c r="AH55" s="58"/>
+      <c r="AI55" s="58"/>
+      <c r="AJ55" s="58"/>
+      <c r="AK55" s="58"/>
+      <c r="AL55" s="58"/>
+      <c r="AM55" s="58"/>
+      <c r="AN55" s="58"/>
+      <c r="AO55" s="58"/>
+      <c r="AP55" s="58"/>
+      <c r="AQ55" s="58"/>
+      <c r="AR55" s="58"/>
+    </row>
+    <row r="56" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A3 &amp; EE13 &amp; ST IP + 19 &amp; Сохраненине AC в ячейку 0x3B7 \\</v>
       </c>
-      <c r="D56" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G56" s="5"/>
+      <c r="D56" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G11:S11)</f>
+        <v>700 &amp; F207 &amp; 701 &amp; F207 &amp; 700 &amp; F207 &amp; 7FE &amp; 0700 &amp; 60CC &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -2662,18 +5617,46 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="13"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="11" t="str">
+      <c r="R56" s="23"/>
+      <c r="S56" s="6"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="58"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="58"/>
+      <c r="Y56" s="58"/>
+      <c r="Z56" s="58"/>
+      <c r="AA56" s="58"/>
+      <c r="AB56" s="58"/>
+      <c r="AC56" s="58"/>
+      <c r="AD56" s="58"/>
+      <c r="AE56" s="58"/>
+      <c r="AF56" s="58"/>
+      <c r="AG56" s="58"/>
+      <c r="AH56" s="58"/>
+      <c r="AI56" s="58"/>
+      <c r="AJ56" s="58"/>
+      <c r="AK56" s="58"/>
+      <c r="AL56" s="58"/>
+      <c r="AM56" s="58"/>
+      <c r="AN56" s="58"/>
+      <c r="AO56" s="58"/>
+      <c r="AP56" s="58"/>
+      <c r="AQ56" s="58"/>
+      <c r="AR56" s="58"/>
+    </row>
+    <row r="57" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A4 &amp; AE0F &amp; ST IP + 15 &amp; Загрузка в AC содержимого из ячейки 0x3B4 \\</v>
       </c>
-      <c r="D57" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G57" s="5"/>
+      <c r="D57" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G12:S12)</f>
+        <v>701 &amp; 7E09 &amp; 702 &amp; 7E09 &amp; 70B &amp; 0B10 &amp; 7FE &amp; 0009 &amp; 60CC &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -2684,18 +5667,46 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="13"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="11" t="str">
+      <c r="R57" s="23"/>
+      <c r="S57" s="6"/>
+      <c r="U57" s="58"/>
+      <c r="V57" s="58"/>
+      <c r="W57" s="58"/>
+      <c r="X57" s="58"/>
+      <c r="Y57" s="58"/>
+      <c r="Z57" s="58"/>
+      <c r="AA57" s="58"/>
+      <c r="AB57" s="58"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
+      <c r="AF57" s="58"/>
+      <c r="AG57" s="58"/>
+      <c r="AH57" s="58"/>
+      <c r="AI57" s="58"/>
+      <c r="AJ57" s="58"/>
+      <c r="AK57" s="58"/>
+      <c r="AL57" s="58"/>
+      <c r="AM57" s="58"/>
+      <c r="AN57" s="58"/>
+      <c r="AO57" s="58"/>
+      <c r="AP57" s="58"/>
+      <c r="AQ57" s="58"/>
+      <c r="AR57" s="58"/>
+    </row>
+    <row r="58" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A5 &amp; 0740 &amp; DEC &amp; Декремент AC \\</v>
       </c>
-      <c r="D58" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G58" s="5"/>
+      <c r="D58" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G13:S13)</f>
+        <v>702 &amp; F905 &amp; 708 &amp; F905 &amp; 702 &amp; F905 &amp; 7FE &amp; 0005 &amp; 60CC &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -2706,18 +5717,46 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="13"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="11" t="str">
+      <c r="R58" s="23"/>
+      <c r="S58" s="6"/>
+      <c r="U58" s="58"/>
+      <c r="V58" s="58"/>
+      <c r="W58" s="58"/>
+      <c r="X58" s="58"/>
+      <c r="Y58" s="58"/>
+      <c r="Z58" s="58"/>
+      <c r="AA58" s="58"/>
+      <c r="AB58" s="58"/>
+      <c r="AC58" s="58"/>
+      <c r="AD58" s="58"/>
+      <c r="AE58" s="58"/>
+      <c r="AF58" s="58"/>
+      <c r="AG58" s="58"/>
+      <c r="AH58" s="58"/>
+      <c r="AI58" s="58"/>
+      <c r="AJ58" s="58"/>
+      <c r="AK58" s="58"/>
+      <c r="AL58" s="58"/>
+      <c r="AM58" s="58"/>
+      <c r="AN58" s="58"/>
+      <c r="AO58" s="58"/>
+      <c r="AP58" s="58"/>
+      <c r="AQ58" s="58"/>
+      <c r="AR58" s="58"/>
+    </row>
+    <row r="59" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A6 &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
       </c>
-      <c r="D59" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G59" s="5"/>
+      <c r="D59" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G14:S14)</f>
+        <v>708 &amp; AE02 &amp; 709 &amp; AE02 &amp; 70B &amp; 0B10 &amp; 7FE &amp; 0002 &amp; 0B10 &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -2728,18 +5767,22 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="13"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="str">
+      <c r="R59" s="23"/>
+      <c r="S59" s="6"/>
+    </row>
+    <row r="60" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B60" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A7 &amp; D6FF &amp; CALL $6FF &amp; Вызов подпрограммы по адресу 0x6FF \\</v>
       </c>
-      <c r="D60" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G60" s="5"/>
+      <c r="D60" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G15:S15)</f>
+        <v>709 &amp; EC01 &amp; 70A &amp; EC01 &amp; 7FF &amp; 0B10 &amp; 7FE &amp; 0001 &amp; 0B10 &amp; 001 &amp; 0001 &amp; 7FF &amp; 0B10</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -2750,18 +5793,22 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="13"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="11" t="str">
+      <c r="R60" s="23"/>
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3A8 &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
       </c>
-      <c r="D61" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G61" s="5"/>
+      <c r="D61" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G16:S16)</f>
+        <v>70A &amp; 0A00 &amp; 3A1 &amp; 0A00 &amp; 7FE &amp; 03A1 &amp; 7FF &amp; 070A &amp; 0B10 &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2772,330 +5819,487 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
-      <c r="R61" s="13"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="11" t="str">
+      <c r="R61" s="23"/>
+      <c r="S61" s="6"/>
+    </row>
+    <row r="62" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>3A9 &amp; 4E0D &amp; SUB IP + 13 &amp; Вычитание из AC содержимого ячейки 0x3B7 \\</v>
-      </c>
-      <c r="D62" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="14"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="11" t="str">
+        <v>3A9 &amp; 4E0D &amp; SUB IP + 13 &amp;   \\</v>
+      </c>
+      <c r="D62" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G17:S17)</f>
+        <v>3A1 &amp; 0800 &amp; 3A2 &amp; 0800 &amp; 7FF &amp; 0B10 &amp; 000 &amp; 03A1 &amp; 0B10 &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="6"/>
+    </row>
+    <row r="63" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3AA &amp; EE0C &amp; ST IP + 12 &amp; Сохраненине AC в ячейку 0x3B7 \\</v>
       </c>
-      <c r="D63" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="11" t="str">
+      <c r="D63" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G18:S18)</f>
+        <v>3A2 &amp; 6E14 &amp; 3A3 &amp; 6E14 &amp; 3B7 &amp; 0000 &amp; 000 &amp; 0014 &amp; 0B10 &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="2:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="B64" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3AB &amp; AE0A &amp; LD IP + 10 &amp; Загрузка в AC содержимого ячейки 0x3B6 \\</v>
       </c>
-      <c r="D64" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="11" t="str">
+      <c r="D64" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G19:S19)</f>
+        <v>3A3 &amp; EE13 &amp; 3A4 &amp; EE13 &amp; 3B7 &amp; 0B10 &amp; 000 &amp; 0013 &amp; 0B10 &amp; 001 &amp; 0001 &amp; 3B7 &amp; 0B10</v>
+      </c>
+      <c r="E64" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3AC &amp; 0700 &amp; INC &amp; Инкремент AC \\</v>
       </c>
-      <c r="D65" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="11" t="str">
+      <c r="D65" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G20:S20)</f>
+        <v>3A4 &amp; AE0F &amp; 3A5 &amp; AE0F &amp; 3B4 &amp; 40ED &amp; 000 &amp; 000F &amp; 40ED &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E65" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B66" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3AD &amp; 0C00 &amp; PUSH &amp; Запись AC в стек \\</v>
       </c>
-      <c r="D66" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="str">
+      <c r="D66" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G21:S21)</f>
+        <v>3A5 &amp; 0740 &amp; 3A6 &amp; 0740 &amp; 3A5 &amp; 0740 &amp; 000 &amp; 03A5 &amp; 40EC &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3AE &amp; D6FF &amp; CALL $6FF &amp; Вызов подпрограммы по адресу 0x6FF \\</v>
       </c>
-      <c r="D67" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="11" t="str">
+      <c r="D67" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G22:S22)</f>
+        <v>3A6 &amp; 0C00 &amp; 3A7 &amp; 0C00 &amp; 7FF &amp; 40EC &amp; 7FF &amp; 03A6 &amp; 40EC &amp; 001 &amp; 0001 &amp; 7FF &amp; 40EC</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3AF &amp; 0800 &amp; POP &amp; Чтение из стека в AC \\</v>
       </c>
-      <c r="D68" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="11" t="str">
+      <c r="D68" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G23:S23)</f>
+        <v>3A7 &amp; D6FF &amp; 6FF &amp; D6FF &amp; 7FE &amp; 03A8 &amp; 7FE &amp; D6FF &amp; 40EC &amp; 001 &amp; 0001 &amp; 7FE &amp; 03A8</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3B0 &amp; 0740 &amp; DEC &amp; Декремент AC \\</v>
       </c>
-      <c r="D69" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="11" t="str">
+      <c r="D69" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G24:S24)</f>
+        <v>6FF &amp; AC01 &amp; 700 &amp; AC01 &amp; 7FF &amp; 40EC &amp; 7FE &amp; 0001 &amp; 40EC &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E69" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>3B1 &amp; 4E05 &amp; SUB IP + 5 &amp; Вычитание из AC содержимого ячейки 0x3B7 \\</v>
-      </c>
-      <c r="D70" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="11" t="str">
+        <v>3B1 &amp; 4E05 &amp; SUB IP + 5 &amp; Сложение AC с содержимым ячейки 0x3B7 \\</v>
+      </c>
+      <c r="D70" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G25:S25)</f>
+        <v>700 &amp; F207 &amp; 701 &amp; F207 &amp; 700 &amp; F207 &amp; 7FE &amp; 0700 &amp; 40EC &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3B2 &amp; EE04 &amp; ST IP + 4 &amp; Сохранение AC в ячейку 0x3B7 \\</v>
       </c>
-      <c r="D71" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="11" t="str">
+      <c r="D71" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G26:S26)</f>
+        <v>701 &amp; 7E09 &amp; 702 &amp; 7E09 &amp; 70B &amp; 0B10 &amp; 7FE &amp; 0009 &amp; 40EC &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3B3 &amp; 0100 &amp; HLT &amp; Остановка ТГ \\</v>
       </c>
-      <c r="D72" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="str">
+      <c r="D72" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G27:S27)</f>
+        <v>702 &amp; F905 &amp; 708 &amp; F905 &amp; 702 &amp; F905 &amp; 7FE &amp; 0005 &amp; 40EC &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3B4 &amp; ZZZZ &amp; Z &amp; Переменная \\</v>
       </c>
-      <c r="D73" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="11" t="str">
+      <c r="D73" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G28:S28)</f>
+        <v>708 &amp; AE02 &amp; 709 &amp; AE02 &amp; 70B &amp; 0B10 &amp; 7FE &amp; 0002 &amp; 0B10 &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E73" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B74" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3B5 &amp; YYYY &amp; Y &amp; Переменная \\</v>
       </c>
-      <c r="D74" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="11" t="str">
+      <c r="D74" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G29:S29)</f>
+        <v>709 &amp; EC01 &amp; 70A &amp; EC01 &amp; 7FF &amp; 0B10 &amp; 7FE &amp; 0001 &amp; 0B10 &amp; 001 &amp; 0001 &amp; 7FF &amp; 0B10</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3B6 &amp; XXXX &amp; X &amp; Переменная \\</v>
       </c>
-      <c r="D75" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="11" t="str">
+      <c r="D75" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G30:S30)</f>
+        <v>70A &amp; 0A00 &amp; 3A8 &amp; 0A00 &amp; 7FE &amp; 03A8 &amp; 7FF &amp; 070A &amp; 0B10 &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E75" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="10" t="str">
         <f t="shared" si="4"/>
         <v>3B7 &amp; 0D08 &amp; R &amp; Результат \\</v>
       </c>
-      <c r="D76" s="10" t="str">
+      <c r="D76" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G31:S31)</f>
+        <v>3A8 &amp; 0800 &amp; 3A9 &amp; 0800 &amp; 7FF &amp; 0B10 &amp; 000 &amp; 03A8 &amp; 0B10 &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="str">
+        <f t="shared" ref="B77:B90" si="5">_xlfn.CONCAT(_xlfn.TEXTJOIN(" &amp; ",FALSE,B32:E32)," \\")</f>
+        <v>6FF &amp; AC01 &amp; LD &amp;1 &amp; Чтение из стека входного параметра \\</v>
+      </c>
+      <c r="D77" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G32:S32)</f>
+        <v>3A9 &amp; 4E0D &amp; 3AA &amp; 4E0D &amp; 3B7 &amp; 0B10 &amp; 000 &amp; 000D &amp; 1620 &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E77" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B78" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="11" t="str">
-        <f t="shared" ref="B77:B92" si="6">_xlfn.CONCAT(_xlfn.TEXTJOIN(" &amp; ",FALSE,B32:E32)," \\")</f>
-        <v>6FF &amp; AC01 &amp; LD &amp;1 &amp; Чтение из стека входного параметра \\</v>
-      </c>
-      <c r="D77" s="10" t="str">
+        <v>700 &amp; F207 &amp; BMI IP + 7 &amp; Если значение параметра меньше нуля, то переход в ячейку 0x708 \\</v>
+      </c>
+      <c r="D78" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G33:S33)</f>
+        <v>3AA &amp; EE0C &amp; 3AB &amp; EE0C &amp; 3B7 &amp; 1620 &amp; 000 &amp; 000C &amp; 1620 &amp; 000 &amp; 0000 &amp; 3B7 &amp; 1620</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B79" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="11" t="str">
+        <v>701 &amp; 7E09 &amp; CMP IP + 9 &amp; Сравнение AC с содержимым ячейки 0x70B \\</v>
+      </c>
+      <c r="D79" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G34:S34)</f>
+        <v>3AB &amp; AE0A &amp; 3AC &amp; AE0A &amp; 3B6 &amp; 0603 &amp; 000 &amp; 000A &amp; 0603 &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E79" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B80" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>702 &amp; F905 &amp; BGE IP + 5 &amp; Если значение параметра больше или равно, то переход в ячейку 0x708 \\</v>
+      </c>
+      <c r="D80" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G35:S35)</f>
+        <v>3AC &amp; 0700 &amp; 3AD &amp; 0700 &amp; 3AC &amp; 0700 &amp; 000 &amp; 03AC &amp; 0604 &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E80" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B81" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>703 &amp; 0500 &amp; ASL &amp; Арифметический сдвиг влево \\</v>
+      </c>
+      <c r="D81" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G36:S36)</f>
+        <v>3AD &amp; 0C00 &amp; 3AE &amp; 0C00 &amp; 7FF &amp; 0604 &amp; 7FF &amp; 03AD &amp; 0604 &amp; 000 &amp; 0000 &amp; 7FF &amp; 0604</v>
+      </c>
+      <c r="E81" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>704 &amp; 0500 &amp; ASL &amp; Арифметический сдвиг влево \\</v>
+      </c>
+      <c r="D82" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G37:S37)</f>
+        <v>3AE &amp; D6FF &amp; 6FF &amp; D6FF &amp; 7FE &amp; 03AF &amp; 7FE &amp; D6FF &amp; 0604 &amp; 000 &amp; 0000 &amp; 7FE &amp; 03AF</v>
+      </c>
+      <c r="E82" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B83" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>705 &amp; 4C01 &amp; ADD &amp;1 &amp; Сложение входного параметра с AC \\</v>
+      </c>
+      <c r="D83" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G38:S38)</f>
+        <v>6FF &amp; AC01 &amp; 700 &amp; AC01 &amp; 7FF &amp; 0604 &amp; 7FE &amp; 0001 &amp; 0604 &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E83" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B84" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>706 &amp; 4E05 &amp; ADD IP + 5 &amp; Сложение сожержимого ячейки 0x70C с AC \\</v>
+      </c>
+      <c r="D84" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G39:S39)</f>
+        <v>700 &amp; F207 &amp; 701 &amp; F207 &amp; 700 &amp; F207 &amp; 7FE &amp; 0700 &amp; 0604 &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E84" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B85" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>707 &amp; CE01 &amp; BR IP + 1 &amp; Безусловный переход в ячейку 0x709 \\</v>
+      </c>
+      <c r="D85" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G40:S40)</f>
+        <v>701 &amp; 7E09 &amp; 702 &amp; 7E09 &amp; 70B &amp; 0B10 &amp; 7FE &amp; 0009 &amp; 0604 &amp; 008 &amp; 1000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E85" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B86" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>708 &amp; AE02 &amp; LD IP + 2 &amp; Загрузка в AC содержимого ячейки 0x70B \\</v>
+      </c>
+      <c r="D86" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G41:S41)</f>
+        <v>702 &amp; F905 &amp; 703 &amp; F905 &amp; 702 &amp; F905 &amp; 7FE &amp; 0702 &amp; 0604 &amp; 008 &amp; 1000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E86" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B87" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>709 &amp; EC01 &amp; ST &amp;1 &amp; Сохранение AC на место входного параметра в стеке \\</v>
+      </c>
+      <c r="D87" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G42:S42)</f>
+        <v>703 &amp; 0500 &amp; 704 &amp; 0500 &amp; 703 &amp; 0604 &amp; 7FE &amp; 0703 &amp; 0C08 &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E87" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B88" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>70A &amp; 0A00 &amp; RET &amp; Возврат из подпрограммы \\</v>
+      </c>
+      <c r="D88" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G43:S43)</f>
+        <v>704 &amp; 0500 &amp; 705 &amp; 0500 &amp; 704 &amp; 0C08 &amp; 7FE &amp; 0704 &amp; 1810 &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E88" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B89" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>70B &amp; 0B10 &amp; a &amp; Локальная переменная \\</v>
+      </c>
+      <c r="D89" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G44:S44)</f>
+        <v>705 &amp; 4C01 &amp; 706 &amp; 4C01 &amp; 7FF &amp; 0604 &amp; 7FE &amp; 0001 &amp; 1E14 &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E89" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B90" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>70C &amp; 00FA &amp; b &amp; Локальная переменная \\</v>
+      </c>
+      <c r="D90" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",FALSE,G45:S45)</f>
+        <v>706 &amp; 4E05 &amp; 707 &amp; 4E05 &amp; 70C &amp; 00FA &amp; 7FE &amp; 0005 &amp; 1F0E &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E90" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B91" s="10"/>
+      <c r="D91" s="9" t="str">
+        <f t="shared" ref="D91:D104" si="6">_xlfn.TEXTJOIN(" &amp; ",FALSE,G46:S46)</f>
+        <v>707 &amp; CE01 &amp; 709 &amp; CE01 &amp; 707 &amp; 0709 &amp; 7FE &amp; 0001 &amp; 1F0E &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E91" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B92" s="10"/>
+      <c r="D92" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>700 &amp; F207 &amp; BMI IP + 7 &amp; Если значение параметра меньше нуля, то переход в ячейку 0x708 \\</v>
-      </c>
-      <c r="D78" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="11" t="str">
+        <v>709 &amp; EC01 &amp; 70A &amp; EC01 &amp; 7FF &amp; 1F0E &amp; 7FE &amp; 0001 &amp; 1F0E &amp; 000 &amp; 0000 &amp; 7FF &amp; 1F0E</v>
+      </c>
+      <c r="E92" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B93" s="10"/>
+      <c r="D93" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>701 &amp; 7E09 &amp; CMP IP + 9 &amp; Сравнение AC с содержимым ячейки 0x70B \\</v>
-      </c>
-      <c r="D79" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="11" t="str">
+        <v>70A &amp; 0A00 &amp; 3AF &amp; 0A00 &amp; 7FE &amp; 03AF &amp; 7FF &amp; 070A &amp; 1F0E &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E93" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B94" s="10"/>
+      <c r="D94" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>702 &amp; F905 &amp; BGE IP + 5 &amp; Если значение параметра больше или равно, то переход в ячейку 0x708 \\</v>
-      </c>
-      <c r="D80" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="11" t="str">
+        <v>3AF &amp; 0800 &amp; 3B0 &amp; 0800 &amp; 7FF &amp; 1F0E &amp; 000 &amp; 03AF &amp; 1F0E &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E94" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="D95" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>703 &amp; 0500 &amp; ASL &amp; Арифметический сдвиг влево \\</v>
-      </c>
-      <c r="D81" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="11" t="str">
+        <v>3B0 &amp; 0740 &amp; 3B1 &amp; 0740 &amp; 3B0 &amp; 0740 &amp; 000 &amp; 03B0 &amp; 1F0D &amp; 001 &amp; 0001 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E95" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="D96" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>704 &amp; 0500 &amp; ASL &amp; Арифметический сдвиг влево \\</v>
-      </c>
-      <c r="D82" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="11" t="str">
+        <v>3B1 &amp; 4E05 &amp; 3B2 &amp; 4E05 &amp; 3B7 &amp; 1620 &amp; 000 &amp; 0005 &amp; 352D &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E96" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="D97" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>705 &amp; 4C01 &amp; ADD &amp;1 &amp; Сложение входного параметра с AC \\</v>
-      </c>
-      <c r="D83" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="11" t="str">
+        <v>3B2 &amp; EE04 &amp; 3B3 &amp; EE04 &amp; 3B7 &amp; 352D &amp; 000 &amp; 0004 &amp; 352D &amp; 000 &amp; 0000 &amp; 3B7 &amp; 352D</v>
+      </c>
+      <c r="E97" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="D98" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>706 &amp; 4E05 &amp; ADD IP + 5 &amp; Сложение сожержимого ячейки 0x70C с AC \\</v>
-      </c>
-      <c r="D84" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>707 &amp; CE01 &amp; BR IP + 1 &amp; Безусловный переход в ячейку 0x709 \\</v>
-      </c>
-      <c r="D85" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>708 &amp; AE02 &amp; LD IP + 2 &amp; Загрузка в AC содержимого ячейки 0x70B \\</v>
-      </c>
-      <c r="D86" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>709 &amp; EC01 &amp; ST &amp;1 &amp; Сохранение AC на место входного параметра в стеке \\</v>
-      </c>
-      <c r="D87" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>70A &amp; 0A00 &amp; RET &amp; Возврат из подпрограммы \\</v>
-      </c>
-      <c r="D88" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>70B &amp; 0B10 &amp; a &amp; Локальная переменная \\</v>
-      </c>
-      <c r="D89" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>70C &amp; 00FA &amp; b &amp; Локальная переменная \\</v>
-      </c>
-      <c r="D90" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp; </v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="11"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="11"/>
+        <v>3B3 &amp; 0100 &amp; 3B4 &amp; 0100 &amp; 3B3 &amp; 0100 &amp; 000 &amp; 03B3 &amp; 352D &amp; 000 &amp; 0000 &amp; --- &amp; ---</v>
+      </c>
+      <c r="E98" s="65" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="I2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E49" r:id="rId1" xr:uid="{DEBB97A5-6D1D-254E-AD00-E4C468CA4721}"/>
+    <hyperlink ref="E50:E98" r:id="rId2" display="\\" xr:uid="{DBA29B68-63D6-9144-B5D1-8D78C2BAE128}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>